--- a/biology/Zoologie/Clubionidae/Clubionidae.xlsx
+++ b/biology/Zoologie/Clubionidae/Clubionidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Clubionidae sont une famille d'araignées aranéomorphes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Clubionidae sont une famille d'araignées aranéomorphes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent sur tous les continents sauf aux pôles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent sur tous les continents sauf aux pôles.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des araignées errantes nocturnes. On les trouve près du sol, dans de la végétation basse et humide ou sous les roches, où elles vivent dans une loge de soie. La plupart n'en sortent que la nuit pour aller chasser. Certaines espèces fréquentent aussi la canopée des arbres. Le cocon est installé dans une feuille repliée.
 </t>
@@ -573,9 +589,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est connue depuis le Paléogène[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est connue depuis le Paléogène.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24.5, 06/10/2023)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24.5, 06/10/2023) :
 Arabellata Baert, Versteirt &amp; Jocqué, 2010
 Bucliona Benoit, 1977
 Clubiona Latreille, 1804
@@ -625,7 +645,7 @@
 Simalio Simon, 1897
 Sinostidia Yu &amp; Li, 2021
 Tixcocoba Gertsch, 1977
-Selon World Spider Catalog (version 23.5, 2023)[2] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Chiapasona Petrunkevitch, 1963
 † Desultor Petrunkevitch, 1942
 † Eobumbatrix Petrunkevitch, 1922
@@ -660,12 +680,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille a été décrite par Simon en 1878 comme une sous-famille des Drassidae. Elle est élevée au rang de famille par Wagner en 1887[3].
-Cette famille rassemble 663 espèces dans 18 genres[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille a été décrite par Simon en 1878 comme une sous-famille des Drassidae. Elle est élevée au rang de famille par Wagner en 1887.
+Cette famille rassemble 663 espèces dans 18 genres.
 On a pendant longtemps classé dans cette famille des taxons très hétérogènes. Les familles suivantes étaient anciennement incluses dans les Clubionidae : Anyphaenidae, Tengellidae, Zorocratidae, Miturgidae, Corinnidae ou Liocranidae.
-L'appartenance à cette famille des genres fossiles est contestée par Wunderlich en 2011[5].
+L'appartenance à cette famille des genres fossiles est contestée par Wunderlich en 2011.
 </t>
         </is>
       </c>
@@ -694,7 +716,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Simon, 1878 : Les arachnides de France. Paris, vol. 4, p. 1-334 (texte intégral).</t>
         </is>
